--- a/kepler_data.xlsx
+++ b/kepler_data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Keplerchatbot\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D184896A-3163-4D0A-A361-54C96AB25711}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9CB07BF2-9A1B-4CDB-B587-6026193746B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Draft" sheetId="1" r:id="rId1"/>
@@ -2987,8 +2987,8 @@
   </sheetPr>
   <dimension ref="A1:B74"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
@@ -31670,8 +31670,8 @@
   </sheetPr>
   <dimension ref="A1:F41"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="B33" sqref="B33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15.75" customHeight="1"/>
